--- a/public/files/Data_By_Towns_Index/Middlesex/Cranbury Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Middlesex/Cranbury Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.2981282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.5164171</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.30150560000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.52043949999999</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.3006771</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.52150829999999</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.3193866</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.561656</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.3126131</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.5152465</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.2982745</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.53235149999999</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.2986611</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.5166112</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.333822</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.54375899999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.2998284</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.5155405</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.3055514</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.5261696</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.3007189</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.52152459999999</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.3273731</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.530771</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.30375</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.512281</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.3198437</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.561249</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.301104</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.52082799999999</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.3288833</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.53664759999999</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.30045459999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.52141159999999</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.3047353</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.5193084</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.2989532</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.5198236</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>40.3217557</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.51116469999999</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>40.3260586</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.53796799999999</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>40.3038757</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.51322209999999</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1028,6 +1175,12 @@
         <is>
           <t>Bhatt</t>
         </is>
+      </c>
+      <c r="F24" t="n">
+        <v>40.3099354</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.5545589</v>
       </c>
     </row>
   </sheetData>
